--- a/2.0_Grafikrechner_BL.xlsx
+++ b/2.0_Grafikrechner_BL.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>Projekt</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Verlinkung auf eine Text-Anleitung.</t>
   </si>
   <si>
-    <t>Die Oberfläche enthält ein Selector zum Auswählen des Funktionstypen.</t>
-  </si>
-  <si>
     <t>Der Benutzer möchte ein anschaulisches Desktop-Icon</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>Der Benutzer möchte einen "Berechne"-Button</t>
   </si>
   <si>
-    <t>Die Funktion muss jetzt ausgewertet werden</t>
-  </si>
-  <si>
     <t>Ein Koordinatensystem wird anhand der Skalierung im Hintergrund automatisch angezeigt</t>
   </si>
   <si>
@@ -297,9 +291,6 @@
     <t>Der Benutzer kann die Skalierung der X und Y-Achse manuell einstellen</t>
   </si>
   <si>
-    <t>Ein Algorithmus soll die Skalierung der X und Y-Achse an die Pixel anpassen</t>
-  </si>
-  <si>
     <t>Der Benutzer möchte über einen Button den Funktionstyp wählen können</t>
   </si>
   <si>
@@ -309,9 +300,6 @@
     <t>Über ein Selector muss die Größe einstellbar sein können.                                 Enthält Eingabefelder für Xmin und Xmax / Ymin und Y max.</t>
   </si>
   <si>
-    <t>Der Benutzer möchte die Abstände der Achsenpunkte manuell anpassen können</t>
-  </si>
-  <si>
     <t>Es muss ein Menüpunkt vorhanden sein mit der man die Abstände der Skalierung einstellen kann</t>
   </si>
   <si>
@@ -369,7 +357,25 @@
     <t>Es muss ein Textfeld da sein zum anzeigen der Funktionsgleichungen</t>
   </si>
   <si>
-    <t>Die Funktionsgleichung soll  in der Konsole ausgegeben werden</t>
+    <t>Die Funktionsgleichung soll in der Konsole angezeigt werden</t>
+  </si>
+  <si>
+    <t>Es muss ein Button vorhanden sein der speziell zur Auswertung der Funktionen vorhanden ist</t>
+  </si>
+  <si>
+    <t>Der Benutzer kann die Punktabstände der Achsen manuell anpassen</t>
+  </si>
+  <si>
+    <t>Ein Algorithmus soll die Funktionsgleichung an die Skalierung der X und Y-Achse anpassen</t>
+  </si>
+  <si>
+    <t>Die Oberfläche enthält ein Selector zum Auswählen des Funktionstypen</t>
+  </si>
+  <si>
+    <t>Der Benutzer möchte 5 Panels in seiner Oberfläche</t>
+  </si>
+  <si>
+    <t>Es müssen 5 Bereiche auf der Oberfläche vorhanden sein zum Anzeigen spezieller Werte und Daten</t>
   </si>
 </sst>
 </file>
@@ -485,12 +491,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9966FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -498,6 +498,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -655,7 +661,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -722,11 +728,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -743,7 +749,147 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2366,6 +2512,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFD9191"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFCC99FF"/>
       <color rgb="FFFF33CC"/>
       <color rgb="FFFF0066"/>
       <color rgb="FF9966FF"/>
@@ -2373,8 +2522,6 @@
       <color rgb="FFFF00FF"/>
       <color rgb="FFF66900"/>
       <color rgb="FFFF9900"/>
-      <color rgb="FFDDEE00"/>
-      <color rgb="FF00D642"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3303,13 +3450,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3358,28 +3505,28 @@
     <row r="2" spans="1:11" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="21">
-        <f>COUNTA(B3:B1007)</f>
-        <v>27</v>
+        <f>COUNTA(B3:B1008)</f>
+        <v>28</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20">
-        <f>SUM(F3:F1007)</f>
-        <v>0</v>
+        <f>SUM(F3:F1008)</f>
+        <v>7</v>
       </c>
       <c r="G2" s="20">
-        <f>SUM(G3:G1007)</f>
-        <v>0</v>
+        <f>SUM(G3:G1008)</f>
+        <v>7</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>34</v>
@@ -3390,25 +3537,37 @@
       <c r="E3" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
       <c r="B4" s="15" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>32</v>
+      <c r="D4" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -3418,13 +3577,13 @@
         <v>32</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="15" t="s">
-        <v>70</v>
+      <c r="A6" s="38"/>
+      <c r="B6" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>34</v>
@@ -3433,13 +3592,13 @@
         <v>32</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>34</v>
@@ -3448,13 +3607,13 @@
         <v>32</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>34</v>
@@ -3463,28 +3622,34 @@
         <v>32</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="F9" s="15">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>34</v>
@@ -3496,25 +3661,31 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+    <row r="11" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
       <c r="B11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>34</v>
+        <v>90</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>42</v>
+        <v>69</v>
+      </c>
+      <c r="F11" s="15">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="15" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>34</v>
@@ -3523,13 +3694,13 @@
         <v>32</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="15" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>34</v>
@@ -3538,103 +3709,103 @@
         <v>32</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
       <c r="B14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
       <c r="B16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>36</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>35</v>
@@ -3643,13 +3814,13 @@
         <v>32</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>35</v>
@@ -3658,73 +3829,73 @@
         <v>32</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
       <c r="B22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
       <c r="B23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>36</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>35</v>
@@ -3733,13 +3904,13 @@
         <v>32</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
       <c r="B27" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>35</v>
@@ -3748,13 +3919,13 @@
         <v>32</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
       <c r="B28" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>35</v>
@@ -3763,13 +3934,13 @@
         <v>32</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>35</v>
@@ -3778,12 +3949,23 @@
         <v>32</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" s="31"/>
@@ -3802,272 +3984,298 @@
       <c r="D34" s="31"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="36" t="s">
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="37" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D37" s="30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D38" s="31"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="31"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <sortState ref="B4:E23">
-    <sortCondition sortBy="cellColor" ref="C4:C23" dxfId="69"/>
+    <sortCondition sortBy="cellColor" ref="C4:C23" dxfId="75"/>
   </sortState>
-  <conditionalFormatting sqref="D1:D2 D30:D34 D37:D65545 D5:D8">
-    <cfRule type="cellIs" dxfId="68" priority="112" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D1:D2 D31:D35 D38:D65546 D6:D8 D10 D19:D21">
+    <cfRule type="cellIs" dxfId="74" priority="124" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="125" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="126" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="65" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="121" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="122" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="123" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D22">
-    <cfRule type="cellIs" dxfId="62" priority="82" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="68" priority="94" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="95" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="96" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="65" priority="79" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="80" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="81" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="cellIs" dxfId="62" priority="88" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="89" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="90" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="59" priority="82" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="83" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="84" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="56" priority="76" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="77" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="78" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="53" priority="73" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="74" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="75" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="50" priority="70" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="71" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="72" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="47" priority="64" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="65" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="66" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="44" priority="61" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="62" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="63" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="41" priority="58" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="59" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="60" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="38" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="cellIs" dxfId="35" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="41" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="42" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="32" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="33" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="59" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="69" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="56" priority="76" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="77" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="78" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="53" priority="70" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="71" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="72" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="50" priority="64" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="65" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="47" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="44" priority="58" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="41" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="38" priority="52" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="54" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="35" priority="49" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="50" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="51" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="32" priority="46" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="47" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="29" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="26" priority="31" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="32" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="33" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="23" priority="28" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="30" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>

--- a/2.0_Grafikrechner_BL.xlsx
+++ b/2.0_Grafikrechner_BL.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
   <si>
     <t>Projekt</t>
   </si>
@@ -213,9 +213,6 @@
     <t>Der Benutzer möchte ein Ausgabefeld für die Null-, Extrem- und Wendepunkte</t>
   </si>
   <si>
-    <t>Es müssen die Punkte Hilfe und Skalierung vorhanden sein.</t>
-  </si>
-  <si>
     <t>Verlinkung auf eine Text-Anleitung.</t>
   </si>
   <si>
@@ -376,13 +373,28 @@
   </si>
   <si>
     <t>Es müssen 5 Bereiche auf der Oberfläche vorhanden sein zum Anzeigen spezieller Werte und Daten</t>
+  </si>
+  <si>
+    <t>Der Benutzer willl dass sich das Programm in einer bestimmten Größe öffnet</t>
+  </si>
+  <si>
+    <t>Beim Öffnen des Programms muss das Fenster die gewünschte Größe haben</t>
+  </si>
+  <si>
+    <t>Der Benutzer will mehrere Funktionen abspeichern können</t>
+  </si>
+  <si>
+    <t>Es muss möglich sein temporär bis 3 Funktionen speichern zu können</t>
+  </si>
+  <si>
+    <t>Im Programm muss eine Menüleiste existieren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -420,15 +432,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,12 +460,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00D642"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -473,36 +472,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF66900"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD03B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00EA48"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,12 +658,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -704,10 +703,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -719,6 +718,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -728,28 +736,300 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Gut" xfId="2" builtinId="26"/>
+  <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CC00"/>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFADCB3"/>
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2512,16 +2792,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF00EA48"/>
+      <color rgb="FFFFD03B"/>
+      <color rgb="FFFFD757"/>
+      <color rgb="FFFF9900"/>
       <color rgb="FFFD9191"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF33CC"/>
       <color rgb="FFFF0066"/>
-      <color rgb="FF9966FF"/>
-      <color rgb="FF00CCFF"/>
-      <color rgb="FFFF00FF"/>
-      <color rgb="FFF66900"/>
-      <color rgb="FFFF9900"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3326,10 +3606,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3346,11 +3626,11 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -3400,11 +3680,11 @@
       <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
@@ -3450,13 +3730,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3505,37 +3785,37 @@
     <row r="2" spans="1:11" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="21">
-        <f>COUNTA(B3:B1008)</f>
-        <v>28</v>
+        <f>COUNTA(B3:B1009)</f>
+        <v>30</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20">
-        <f>SUM(F3:F1008)</f>
-        <v>7</v>
+        <f>SUM(F3:F1009)</f>
+        <v>4</v>
       </c>
       <c r="G2" s="20">
-        <f>SUM(G3:G1008)</f>
-        <v>7</v>
+        <f>SUM(G3:G1009)</f>
+        <v>4</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3"/>
       <c r="B3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F3" s="15">
         <v>1</v>
@@ -3544,19 +3824,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4"/>
       <c r="B4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="F4" s="15">
         <v>1</v>
@@ -3565,717 +3845,766 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5"/>
       <c r="B5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="E10" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="15" t="s">
+      <c r="E12" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="35" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="33" t="s">
+      <c r="E15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="15" t="s">
+      <c r="E16" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="C18" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="15">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="33" t="s">
+      <c r="E18" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="34" t="s">
+      <c r="E19" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="15">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="33" t="s">
+      <c r="E20" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22"/>
       <c r="B22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23"/>
       <c r="B23" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24"/>
       <c r="B24" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25"/>
       <c r="B25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="37" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="B26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="B27" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="B28" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29"/>
+      <c r="B29" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D31" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="33" t="s">
+      <c r="E31" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="36" t="s">
+      <c r="E32" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="15">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="39" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D38" s="40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="31"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="31"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <sortState ref="B4:E23">
-    <sortCondition sortBy="cellColor" ref="C4:C23" dxfId="75"/>
+    <sortCondition sortBy="cellColor" ref="C4:C23" dxfId="89"/>
   </sortState>
-  <conditionalFormatting sqref="D1:D2 D31:D35 D38:D65546 D6:D8 D10 D19:D21">
-    <cfRule type="cellIs" dxfId="74" priority="124" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D1:D2 D33:D36 D39:D65547 D6:D8 D10 D19:D21">
+    <cfRule type="cellIs" dxfId="88" priority="133" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="134" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="135" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="71" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="130" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="131" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="132" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="68" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="103" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="104" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="105" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="65" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="88" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="89" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="90" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="62" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="97" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="98" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="99" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="70" priority="85" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="86" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="87" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="67" priority="82" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="83" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="84" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="64" priority="79" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="80" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="81" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="61" priority="73" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="74" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="75" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="58" priority="70" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="71" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="72" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="55" priority="67" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="68" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="69" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="cellIs" dxfId="49" priority="49" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="51" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="41" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="42" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="59" priority="82" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="83" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="84" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="56" priority="76" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="77" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="78" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="53" priority="73" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="74" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="75" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="50" priority="70" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="71" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="72" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="47" priority="64" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="65" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="66" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="44" priority="61" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="62" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="63" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="41" priority="58" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="59" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="60" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="38" priority="43" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="44" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="45" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="35" priority="40" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="41" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="42" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="32" priority="34" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="35" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="36" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="33" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>

--- a/2.0_Grafikrechner_BL.xlsx
+++ b/2.0_Grafikrechner_BL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.kononenko\Desktop\GrafikRechner\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
   <si>
     <t>Projekt</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Die aktuelle Funktion muss speicherbar sein</t>
   </si>
   <si>
-    <t>Das Bild muss sich automatisch der Größen der X- und Y-Werte anpassen</t>
-  </si>
-  <si>
     <t>Durch eine Regelung muss die Größe anpassbar sein</t>
   </si>
   <si>
@@ -363,18 +360,9 @@
     <t>Der Benutzer kann die Punktabstände der Achsen manuell anpassen</t>
   </si>
   <si>
-    <t>Ein Algorithmus soll die Funktionsgleichung an die Skalierung der X und Y-Achse anpassen</t>
-  </si>
-  <si>
     <t>Die Oberfläche enthält ein Selector zum Auswählen des Funktionstypen</t>
   </si>
   <si>
-    <t>Der Benutzer möchte 5 Panels in seiner Oberfläche</t>
-  </si>
-  <si>
-    <t>Es müssen 5 Bereiche auf der Oberfläche vorhanden sein zum Anzeigen spezieller Werte und Daten</t>
-  </si>
-  <si>
     <t>Der Benutzer willl dass sich das Programm in einer bestimmten Größe öffnet</t>
   </si>
   <si>
@@ -388,6 +376,12 @@
   </si>
   <si>
     <t>Im Programm muss eine Menüleiste existieren</t>
+  </si>
+  <si>
+    <t>Der Benutzer möchte 4 Panels in seiner Oberfläche</t>
+  </si>
+  <si>
+    <t>Es müssen 4 Bereiche auf der Oberfläche vorhanden sein zum Anzeigen spezieller Werte und Daten</t>
   </si>
 </sst>
 </file>
@@ -718,15 +712,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -739,157 +724,21 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="29"/>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="27"/>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CC00"/>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFADCB3"/>
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="82">
     <dxf>
       <font>
         <b val="0"/>
@@ -3606,10 +3455,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3626,11 +3475,11 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -3680,11 +3529,11 @@
       <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
@@ -3730,13 +3579,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3785,19 +3634,19 @@
     <row r="2" spans="1:11" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="21">
-        <f>COUNTA(B3:B1009)</f>
-        <v>30</v>
+        <f>COUNTA(B3:B1008)</f>
+        <v>29</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20">
-        <f>SUM(F3:F1009)</f>
-        <v>4</v>
+        <f>SUM(F3:F1008)</f>
+        <v>173</v>
       </c>
       <c r="G2" s="20">
-        <f>SUM(G3:G1009)</f>
-        <v>4</v>
+        <f>SUM(G3:G1008)</f>
+        <v>173</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -3806,37 +3655,37 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F3" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="B4" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F4" s="15">
         <v>1</v>
@@ -3848,16 +3697,16 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="15">
         <v>1</v>
@@ -3869,157 +3718,217 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="F7" s="15">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="F9" s="15">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="F10" s="15">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="F11" s="15">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="F13" s="15">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>67</v>
+        <v>40</v>
+      </c>
+      <c r="F14" s="15">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="F15" s="15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>36</v>
@@ -4028,13 +3937,19 @@
         <v>32</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="F16" s="15">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>36</v>
@@ -4043,45 +3958,57 @@
         <v>32</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>36</v>
+        <v>59</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="F18" s="15">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="F19" s="15">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="32" t="s">
@@ -4090,41 +4017,59 @@
       <c r="E20" s="15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="15">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="F21" s="15">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="F22" s="15">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>36</v>
@@ -4133,13 +4078,19 @@
         <v>32</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="F23" s="15">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="15" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>36</v>
@@ -4148,60 +4099,84 @@
         <v>32</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="F24" s="15">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>36</v>
+        <v>81</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="F26" s="15">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="F27" s="15">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="32" t="s">
@@ -4209,14 +4184,20 @@
       </c>
       <c r="E28" s="15" t="s">
         <v>83</v>
+      </c>
+      <c r="F28" s="15">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="32" t="s">
@@ -4224,27 +4205,39 @@
       </c>
       <c r="E29" s="15" t="s">
         <v>84</v>
+      </c>
+      <c r="F29" s="15">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>35</v>
+        <v>92</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>85</v>
+        <v>93</v>
+      </c>
+      <c r="F30" s="15">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>36</v>
@@ -4253,354 +4246,328 @@
         <v>32</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F31" s="15">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32"/>
-      <c r="B32" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="15">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="41" t="s">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="34" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D37" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D39" s="30"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D40" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <sortState ref="B4:E23">
-    <sortCondition sortBy="cellColor" ref="C4:C23" dxfId="89"/>
+    <sortCondition sortBy="cellColor" ref="C4:C23" dxfId="81"/>
   </sortState>
-  <conditionalFormatting sqref="D1:D2 D33:D36 D39:D65547 D6:D8 D10 D19:D21">
-    <cfRule type="cellIs" dxfId="88" priority="133" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D1:D2 D32:D35 D38:D65546 D6:D8 D10 D18:D20">
+    <cfRule type="cellIs" dxfId="80" priority="133" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="134" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="135" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="85" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="130" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="131" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="132" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="74" priority="103" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="104" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="105" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="71" priority="88" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="89" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="90" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="cellIs" dxfId="68" priority="97" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="98" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="99" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="62" priority="82" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="83" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="84" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="59" priority="79" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="80" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="81" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="56" priority="73" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="74" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="75" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="53" priority="70" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="71" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="72" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="50" priority="67" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="68" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="69" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="47" priority="52" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="53" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="54" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="82" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="49" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="50" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="51" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="79" priority="88" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D25">
+    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="45" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="76" priority="97" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="41" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="42" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="70" priority="85" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="39" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="67" priority="82" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="32" priority="34" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="33" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="64" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="61" priority="73" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="58" priority="70" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="55" priority="67" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="49" priority="49" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="51" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="44" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="41" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="42" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="38" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="35" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="32" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="29" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="21" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
